--- a/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
+++ b/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4AFB23-72D5-4458-83E1-87624DE24604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C58ED3-6098-4815-9299-13EBEA4075C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="720" windowWidth="20190" windowHeight="13845" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>作成者</t>
   </si>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>施設使用料・償還金等料金及び納付書作成システム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
       <t>バンゴウ</t>
@@ -249,10 +245,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テナント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -274,10 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テナント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -304,9 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>施設使用料・償還金等料金及び納付書作成システム</t>
-  </si>
-  <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -452,16 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧選択から</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面を閉じる</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -479,16 +454,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>一覧表示</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>藤城</t>
     <rPh sb="0" eb="2">
       <t>フジシロ</t>
@@ -527,50 +492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>藤城</t>
-    <rPh sb="0" eb="2">
-      <t>フジシロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支店コード</t>
-    <rPh sb="0" eb="2">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>預金種類</t>
-    <rPh sb="0" eb="2">
-      <t>ヨキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口座番号</t>
-    <rPh sb="0" eb="2">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口座名義</t>
-    <rPh sb="0" eb="2">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TextBox口座番号</t>
     <rPh sb="7" eb="9">
       <t>コウザ</t>
@@ -655,6 +576,275 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調整入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テナントコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナント名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求更新年月</t>
+    <rPh sb="0" eb="4">
+      <t>セイキュウコウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高割金額</t>
+    <rPh sb="0" eb="4">
+      <t>ウリアゲダカワリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分コード</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分名称</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分サブコード</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積単価</t>
+    <rPh sb="0" eb="4">
+      <t>メンセキタンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用面積数</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設料金（調整）</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>TextBox区分コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox区分名称</t>
+    <rPh sb="9" eb="11">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox区分サブコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBoxテナントコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBoxテナント名称</t>
+    <rPh sb="11" eb="13">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox請求更新年月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧から選択されたアイテムの内容を各テキストボックスに表示する</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択されたアイテムの内容を編集された内容で更新する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧を新規Excelワークシートに出力する</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択されたアイテムを（master.xlsx）マスタブック【テナント区分】シートから抹消する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>マッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommandButton検索テナントコード</t>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommandButton検索区分コード</t>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤城</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内</t>
+    <rPh sb="0" eb="2">
+      <t>タケウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目説明、プログラム機能</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目説明追加、処理追記</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクセツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1133,7 +1323,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1263,6 +1453,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,45 +1477,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1326,6 +1516,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1335,26 +1555,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1373,6 +1590,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1381,6 +1607,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1389,42 +1633,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1874,8 +2082,8 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -1907,50 +2115,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="C7" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="D8" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1970,20 +2178,20 @@
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
       <c r="F12" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="48"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
       <c r="F13" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="48"/>
       <c r="H13" s="29"/>
@@ -1996,52 +2204,52 @@
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
       <c r="F14" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="48"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="48"/>
-      <c r="H15" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="H15" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="48"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="48"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
       <c r="N17" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="6:16" ht="22.5" customHeight="1">
       <c r="N18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="6:16" ht="22.5" customHeight="1">
@@ -2054,7 +2262,7 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="6:16" ht="22.5" customHeight="1">
@@ -2064,6 +2272,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2072,12 +2286,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,7 +2300,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="I7" sqref="I7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2106,52 +2314,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2177,427 +2385,441 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
+      <c r="B5" s="62">
+        <v>44762</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="B6" s="64">
+        <v>45848</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2608,30 +2830,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2648,46 +2886,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2704,7 +2926,7 @@
   <dimension ref="A1:BF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU26" sqref="AU26:BF27"/>
+      <selection activeCell="U2" sqref="U2:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2712,211 +2934,214 @@
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:58" ht="30" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="74" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="78" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71" t="str">
+        <f>表紙!C7</f>
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="73" t="s">
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="78" t="s">
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="74" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="78" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="76" t="str">
+        <f>表紙!H15</f>
+        <v>調整入力</v>
+      </c>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
       <c r="AO2" s="79">
         <v>44752</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="78" t="s">
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="70" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="72"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="82"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -2928,15 +3153,15 @@
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
+        <v>25</v>
+      </c>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
       <c r="AU5" s="68" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AV5" s="68"/>
       <c r="AW5" s="68"/>
@@ -2954,11 +3179,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="67"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
       <c r="AU6" s="68"/>
       <c r="AV6" s="68"/>
       <c r="AW6" s="68"/>
@@ -2976,15 +3201,15 @@
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
+        <v>27</v>
+      </c>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
       <c r="AU7" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AV7" s="68"/>
       <c r="AW7" s="68"/>
@@ -3002,11 +3227,11 @@
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="67"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
       <c r="AU8" s="68"/>
       <c r="AV8" s="68"/>
       <c r="AW8" s="68"/>
@@ -3024,15 +3249,15 @@
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
+        <v>63</v>
+      </c>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
       <c r="AU9" s="68" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AV9" s="68"/>
       <c r="AW9" s="68"/>
@@ -3050,11 +3275,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="67"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
       <c r="AU10" s="68"/>
       <c r="AV10" s="68"/>
       <c r="AW10" s="68"/>
@@ -3071,60 +3296,60 @@
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="99"/>
-      <c r="AZ11" s="99"/>
-      <c r="BA11" s="99"/>
-      <c r="BB11" s="99"/>
-      <c r="BC11" s="99"/>
-      <c r="BD11" s="99"/>
-      <c r="BE11" s="99"/>
-      <c r="BF11" s="100"/>
+      <c r="AO11" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="84"/>
+      <c r="BD11" s="84"/>
+      <c r="BE11" s="84"/>
+      <c r="BF11" s="87"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="101"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="102"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="102"/>
-      <c r="AT12" s="102"/>
-      <c r="AU12" s="102"/>
-      <c r="AV12" s="102"/>
-      <c r="AW12" s="102"/>
-      <c r="AX12" s="102"/>
-      <c r="AY12" s="102"/>
-      <c r="AZ12" s="102"/>
-      <c r="BA12" s="102"/>
-      <c r="BB12" s="102"/>
-      <c r="BC12" s="102"/>
-      <c r="BD12" s="102"/>
-      <c r="BE12" s="102"/>
-      <c r="BF12" s="103"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="86"/>
+      <c r="AW12" s="86"/>
+      <c r="AX12" s="86"/>
+      <c r="AY12" s="86"/>
+      <c r="AZ12" s="86"/>
+      <c r="BA12" s="86"/>
+      <c r="BB12" s="86"/>
+      <c r="BC12" s="86"/>
+      <c r="BD12" s="86"/>
+      <c r="BE12" s="86"/>
+      <c r="BF12" s="88"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="67"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
       <c r="AU13" s="68"/>
       <c r="AV13" s="68"/>
       <c r="AW13" s="68"/>
@@ -3142,11 +3367,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="67"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="59"/>
       <c r="AU14" s="68"/>
       <c r="AV14" s="68"/>
       <c r="AW14" s="68"/>
@@ -3164,11 +3389,11 @@
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="67"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
       <c r="AU15" s="68"/>
       <c r="AV15" s="68"/>
       <c r="AW15" s="68"/>
@@ -3186,11 +3411,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="67"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="59"/>
       <c r="AU16" s="68"/>
       <c r="AV16" s="68"/>
       <c r="AW16" s="68"/>
@@ -3208,11 +3433,11 @@
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="67"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="57"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="59"/>
       <c r="AU17" s="68"/>
       <c r="AV17" s="68"/>
       <c r="AW17" s="68"/>
@@ -3230,11 +3455,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="67"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="68"/>
@@ -3252,11 +3477,11 @@
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="67"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="59"/>
+      <c r="AS19" s="59"/>
+      <c r="AT19" s="59"/>
       <c r="AU19" s="68"/>
       <c r="AV19" s="68"/>
       <c r="AW19" s="68"/>
@@ -3274,11 +3499,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="67"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="59"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="59"/>
       <c r="AU20" s="68"/>
       <c r="AV20" s="68"/>
       <c r="AW20" s="68"/>
@@ -3296,11 +3521,11 @@
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="67"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
       <c r="AU21" s="68"/>
       <c r="AV21" s="68"/>
       <c r="AW21" s="68"/>
@@ -3318,11 +3543,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="67"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="68"/>
       <c r="AW22" s="68"/>
@@ -3346,11 +3571,11 @@
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="67"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="57"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="59"/>
       <c r="AU24" s="68"/>
       <c r="AV24" s="68"/>
       <c r="AW24" s="68"/>
@@ -3368,11 +3593,11 @@
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="67"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="59"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="59"/>
       <c r="AU25" s="68"/>
       <c r="AV25" s="68"/>
       <c r="AW25" s="68"/>
@@ -3390,11 +3615,11 @@
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="67"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
       <c r="AU26" s="68"/>
       <c r="AV26" s="68"/>
       <c r="AW26" s="68"/>
@@ -3412,11 +3637,11 @@
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="67"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
       <c r="AU27" s="68"/>
       <c r="AV27" s="68"/>
       <c r="AW27" s="68"/>
@@ -3434,11 +3659,11 @@
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="67"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
       <c r="AU28" s="68"/>
       <c r="AV28" s="68"/>
       <c r="AW28" s="68"/>
@@ -3456,11 +3681,11 @@
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="67"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
       <c r="AU29" s="68"/>
       <c r="AV29" s="68"/>
       <c r="AW29" s="68"/>
@@ -3478,11 +3703,11 @@
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="67"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
       <c r="AU30" s="68"/>
       <c r="AV30" s="68"/>
       <c r="AW30" s="68"/>
@@ -3500,11 +3725,11 @@
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="67"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
       <c r="AU31" s="68"/>
       <c r="AV31" s="68"/>
       <c r="AW31" s="68"/>
@@ -3522,11 +3747,11 @@
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="67"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
       <c r="AU32" s="68"/>
       <c r="AV32" s="68"/>
       <c r="AW32" s="68"/>
@@ -3544,11 +3769,11 @@
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="67"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
       <c r="AU33" s="68"/>
       <c r="AV33" s="68"/>
       <c r="AW33" s="68"/>
@@ -3566,11 +3791,11 @@
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="67"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
       <c r="AU34" s="68"/>
       <c r="AV34" s="68"/>
       <c r="AW34" s="68"/>
@@ -3588,11 +3813,11 @@
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="67"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="59"/>
       <c r="AU35" s="68"/>
       <c r="AV35" s="68"/>
       <c r="AW35" s="68"/>
@@ -3610,11 +3835,11 @@
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="67"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="59"/>
       <c r="AU36" s="68"/>
       <c r="AV36" s="68"/>
       <c r="AW36" s="68"/>
@@ -3632,11 +3857,11 @@
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="67"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="57"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="59"/>
+      <c r="AT37" s="59"/>
       <c r="AU37" s="68"/>
       <c r="AV37" s="68"/>
       <c r="AW37" s="68"/>
@@ -3654,11 +3879,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="67"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="57"/>
-      <c r="AT38" s="57"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="59"/>
+      <c r="AT38" s="59"/>
       <c r="AU38" s="68"/>
       <c r="AV38" s="68"/>
       <c r="AW38" s="68"/>
@@ -3676,11 +3901,11 @@
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="67"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="57"/>
-      <c r="AR39" s="57"/>
-      <c r="AS39" s="57"/>
-      <c r="AT39" s="57"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="59"/>
       <c r="AU39" s="68"/>
       <c r="AV39" s="68"/>
       <c r="AW39" s="68"/>
@@ -3810,6 +4035,45 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -3820,45 +4084,6 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3872,10 +4097,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3883,26 +4108,28 @@
     <col min="1" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83" t="s">
+    <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95" t="str">
+        <f>表紙!C7</f>
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3917,21 +4144,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="98" t="str">
+        <f>表紙!H15</f>
+        <v>調整入力</v>
+      </c>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -3944,460 +4174,558 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80" t="s">
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="G5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="H5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80" t="s">
+      <c r="I5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="38" t="s">
+      <c r="J5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="40" t="s">
         <v>42</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="40" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
+      <c r="K6" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="80"/>
+      <c r="A7" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="89"/>
       <c r="E7" s="40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
+      <c r="K7" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="80"/>
+      <c r="A8" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="89"/>
       <c r="E8" s="40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
+      <c r="K8" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="80"/>
+      <c r="A9" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="89"/>
       <c r="E9" s="40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
+      <c r="K9" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="40"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="40"/>
+      <c r="A11" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38">
-        <v>20</v>
-      </c>
+      <c r="H11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
+      <c r="K11" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="40"/>
+      <c r="A12" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
+      <c r="K12" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="40"/>
+      <c r="A13" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
+      <c r="K13" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
+      <c r="K14" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
+      <c r="K15" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="40"/>
+      <c r="A16" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
+      <c r="K16" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="40"/>
+      <c r="A17" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
+      <c r="K17" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="80"/>
+      <c r="A18" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="89"/>
       <c r="E18" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
+      <c r="K18" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
+      <c r="A19" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="89"/>
       <c r="E19" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
+      <c r="K19" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="80"/>
+      <c r="A20" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="89"/>
       <c r="E20" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
+      <c r="K20" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="80"/>
+      <c r="A21" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="89"/>
       <c r="E21" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
+      <c r="K21" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
+  <mergeCells count="61">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:Q8"/>
@@ -4407,22 +4735,24 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:Q15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="K16:Q16"/>
@@ -4433,14 +4763,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K18:Q18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4455,8 +4777,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:Q26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4465,31 +4787,33 @@
     <col min="2" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83" t="s">
+    <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95" t="str">
+        <f>表紙!C7</f>
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>5</v>
@@ -4497,21 +4821,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="98" t="str">
+        <f>表紙!H15</f>
+        <v>調整入力</v>
+      </c>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -4524,552 +4851,563 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
+      <c r="A4" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="91"/>
+      <c r="C5" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="109"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
+      <c r="C6" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="103"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="103"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
+      <c r="C10" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="103"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
+      <c r="C14" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="103"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="103"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="91"/>
+      <c r="C20" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="109"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="106"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
+      <c r="C23" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="109"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="106"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="42"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="109"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
+      <c r="C29" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
     <mergeCell ref="C24:Q24"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -5084,19 +5422,12 @@
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
